--- a/exam_schedule.xlsx
+++ b/exam_schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-03 08:00-10:00</t>
+          <t>2023-06-29 12:00-14:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>208, ALUAM, Floor 2</t>
+          <t>115-117, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-06-27 10:00-12:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>EL-B2-4, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-08 14:00-16:00</t>
+          <t>2023-07-10 16:00-18:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-Z-7-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-05 10:00-12:00</t>
+          <t>2023-07-01 10:00-12:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>222-223, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-09 10:00-12:00</t>
+          <t>2023-07-05 08:00-10:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-03 14:00-16:00</t>
+          <t>2023-07-08 10:00-12:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-06 14:00-16:00</t>
+          <t>2023-07-08 12:00-14:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>222-223, ALUAM, Floor 2</t>
+          <t>EL-B2-4, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-01 10:00-12:00</t>
+          <t>2023-07-01 12:00-14:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>210-213, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-08 14:00-16:00</t>
+          <t>2023-06-28 10:00-12:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>Z1, ALUAM, Floor 0</t>
         </is>
       </c>
     </row>
@@ -599,12 +599,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-07 12:00-14:00</t>
+          <t>2023-07-03 14:00-16:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ED-1-3, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-07-03 12:00-14:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>EL-B2-3, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-07 16:00-18:00</t>
+          <t>2023-07-02 14:00-16:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ED-1-14, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -650,12 +650,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-09 08:00-10:00</t>
+          <t>2023-07-10 08:00-10:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ED-Z-14, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-B1-31, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-05 14:00-16:00</t>
+          <t>2023-06-27 14:00-16:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-06 14:00-16:00</t>
+          <t>2023-07-05 14:00-16:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-06 16:00-18:00</t>
+          <t>2023-07-01 12:00-14:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-09 14:00-16:00</t>
+          <t>2023-07-04 16:00-18:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-B1-11, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-05 12:00-14:00</t>
+          <t>2023-07-02 08:00-10:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ED-2-8, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-03 12:00-14:00</t>
+          <t>2023-07-06 16:00-18:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-07-08 16:00-18:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>222-223, ALUAM, Floor 2</t>
+          <t>ED-2-16, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-06 08:00-10:00</t>
+          <t>2023-07-03 08:00-10:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
+          <t>210-213, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-05 08:00-10:00</t>
+          <t>2023-07-06 10:00-12:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-3-16, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-07 16:00-18:00</t>
+          <t>2023-06-30 14:00-16:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ED-2-2, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>115-117, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-04 16:00-18:00</t>
+          <t>2023-07-03 10:00-12:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Z1, ALUAM, Floor 0</t>
+          <t>ED-Z-38, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-08 08:00-10:00</t>
+          <t>2023-07-02 12:00-14:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ED-2-15, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-B1-12, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-04 10:00-12:00</t>
+          <t>2023-07-01 16:00-18:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>217, ALUAM, Floor 2</t>
+          <t>ED-1-14, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-05 10:00-12:00</t>
+          <t>2023-06-27 12:00-14:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-2-13, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-05 08:00-10:00</t>
+          <t>2023-07-03 12:00-14:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>207-211, ALUAM, Floor 2</t>
+          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-05-31 16:00-18:00</t>
+          <t>2023-07-08 10:00-12:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-06 16:00-18:00</t>
+          <t>2023-07-03 12:00-14:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>110, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -956,12 +956,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-06 12:00-14:00</t>
+          <t>2023-07-04 08:00-10:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>113, ALUAM, Floor 1</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-02 16:00-18:00</t>
+          <t>2023-07-01 10:00-12:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>116, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-06 12:00-14:00</t>
+          <t>2023-06-27 08:00-10:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-10, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-03 08:00-10:00</t>
+          <t>2023-07-09 10:00-12:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-07-06 16:00-18:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-12, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-02 08:00-10:00</t>
+          <t>2023-07-06 14:00-16:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>219, ALUAM, Floor 2</t>
+          <t>Z1, ALUAM, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-06 08:00-10:00</t>
+          <t>2023-07-10 16:00-18:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>ED-Z-14, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1075,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-06-09 14:00-16:00</t>
+          <t>2023-06-29 16:00-18:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ED-1-7, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-05-31 10:00-12:00</t>
+          <t>2023-06-29 10:00-12:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>208, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-06-01 08:00-10:00</t>
+          <t>2023-07-07 14:00-16:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>208, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-05-31 12:00-14:00</t>
+          <t>2023-06-28 10:00-12:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ED-Z-1, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-06-04 08:00-10:00</t>
+          <t>2023-06-30 14:00-16:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-05-31 10:00-12:00</t>
+          <t>2023-06-28 16:00-18:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-06-08 12:00-14:00</t>
+          <t>2023-06-29 14:00-16:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-2-13, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-05-31 12:00-14:00</t>
+          <t>2023-06-30 10:00-12:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>115-117, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-06-07 12:00-14:00</t>
+          <t>2023-07-07 08:00-10:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-06-09 12:00-14:00</t>
+          <t>2023-07-04 08:00-10:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-07-01 14:00-16:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-B1-12, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-06-04 08:00-10:00</t>
+          <t>2023-06-27 16:00-18:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-06-02 14:00-16:00</t>
+          <t>2023-07-08 10:00-12:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>113, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-06-07 16:00-18:00</t>
+          <t>2023-07-07 12:00-14:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ED-Z-14, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-2-16, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-06-01 10:00-12:00</t>
+          <t>2023-06-27 08:00-10:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>EL-B2-4, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-06-01 16:00-18:00</t>
+          <t>2023-06-28 10:00-12:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>112, ALUAM, Floor 1</t>
+          <t>ED-2-15, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023-06-01 10:00-12:00</t>
+          <t>2023-07-01 16:00-18:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2023-06-02 08:00-10:00</t>
+          <t>2023-06-27 10:00-12:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>216-221, ALUAM, Floor 2</t>
+          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-06-08 12:00-14:00</t>
+          <t>2023-07-10 12:00-14:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-3-16, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-06-08 08:00-10:00</t>
+          <t>2023-07-06 10:00-12:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>219, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-06-01 10:00-12:00</t>
+          <t>2023-07-04 14:00-16:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ED-Z-20, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-2-8, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-06-06 10:00-12:00</t>
+          <t>2023-07-06 16:00-18:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-06-02 08:00-10:00</t>
+          <t>2023-06-27 12:00-14:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>113, ALUAM, Floor 1</t>
+          <t>EL-B1-20, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-06-04 08:00-10:00</t>
+          <t>2023-07-03 10:00-12:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ED-Z-12, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-06-01 14:00-16:00</t>
+          <t>2023-07-03 08:00-10:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-B1-1, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-10 14:00-16:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-12, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-06-08 14:00-16:00</t>
+          <t>2023-07-08 08:00-10:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>111, ALUAM, Floor 1</t>
+          <t>210-213, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-06-03 16:00-18:00</t>
+          <t>2023-06-28 16:00-18:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
+          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-06-04 10:00-12:00</t>
+          <t>2023-07-02 10:00-12:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>224, ALUAM, Floor 2</t>
+          <t>115-117, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-06-06 16:00-18:00</t>
+          <t>2023-07-09 08:00-10:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ED-Z-39, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-Z-12-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2023-06-01 08:00-10:00</t>
+          <t>2023-06-29 08:00-10:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-B1-12, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-06-27 08:00-10:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>ED-B1-6, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-06-02 16:00-18:00</t>
+          <t>2023-07-07 10:00-12:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ED-Z-10, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-07-09 10:00-12:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>113, ALUAM, Floor 1</t>
+          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-07-10 16:00-18:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ED-1-13, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2023-05-31 16:00-18:00</t>
+          <t>2023-07-06 08:00-10:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ED-Z-7-SB, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-05-31 08:00-10:00</t>
+          <t>2023-07-08 10:00-12:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-06-08 16:00-18:00</t>
+          <t>2023-07-08 12:00-14:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1738,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-06-07 14:00-16:00</t>
+          <t>2023-07-05 12:00-14:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ED-3-2, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-B1-1, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2023-06-07 10:00-12:00</t>
+          <t>2023-07-07 08:00-10:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>110, ALUAM, Floor 1</t>
+          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1772,12 +1772,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-06-05 16:00-18:00</t>
+          <t>2023-07-01 14:00-16:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>Z1, ALUAM, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-05 08:00-10:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ED-2-2, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023-06-07 14:00-16:00</t>
+          <t>2023-06-27 12:00-14:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
+          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2023-06-06 16:00-18:00</t>
+          <t>2023-07-10 10:00-12:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-Z-14, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-06-09 10:00-12:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-06-07 16:00-18:00</t>
+          <t>2023-07-03 16:00-18:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>219, ALUAM, Floor 2</t>
+          <t>ED-B1-11, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2023-06-09 08:00-10:00</t>
+          <t>2023-06-27 16:00-18:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>218, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-07-08 16:00-18:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-Z-6, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ED-Z-12-SB, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-Z-12, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-06-05 12:00-14:00</t>
+          <t>2023-06-28 10:00-12:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>218, ALUAM, Floor 2</t>
+          <t>113, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1942,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2023-06-09 10:00-12:00</t>
+          <t>2023-07-08 08:00-10:00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-07-07 10:00-12:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2023-06-03 12:00-14:00</t>
+          <t>2023-07-10 14:00-16:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2023-06-01 10:00-12:00</t>
+          <t>2023-06-29 08:00-10:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ED-Z-20, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-B1-12, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2023-06-07 12:00-14:00</t>
+          <t>2023-07-07 12:00-14:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>208, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-06-08 16:00-18:00</t>
+          <t>2023-06-28 12:00-14:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
+          <t>112, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2044,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023-06-02 16:00-18:00</t>
+          <t>2023-07-04 08:00-10:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023-06-04 10:00-12:00</t>
+          <t>2023-07-02 10:00-12:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ED-Z-38, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-Z-13-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023-06-08 12:00-14:00</t>
+          <t>2023-07-05 12:00-14:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2023-06-02 14:00-16:00</t>
+          <t>2023-07-07 16:00-18:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-Z-13-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2023-05-31 12:00-14:00</t>
+          <t>2023-07-04 14:00-16:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
+          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-07-05 14:00-16:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>217, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2023-06-05 10:00-12:00</t>
+          <t>2023-07-06 08:00-10:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>112, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2023-06-09 14:00-16:00</t>
+          <t>2023-06-27 08:00-10:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ED-2-2, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2023-06-04 08:00-10:00</t>
+          <t>2023-06-30 12:00-14:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>EL-B2-42, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2023-06-05 14:00-16:00</t>
+          <t>2023-07-10 10:00-12:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ED-2-15, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-2-1, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2214,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2023-05-31 16:00-18:00</t>
+          <t>2023-07-05 10:00-12:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Z1, ALUAM, Floor 0</t>
+          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2023-06-02 10:00-12:00</t>
+          <t>2023-06-29 10:00-12:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>111, ALUAM, Floor 1</t>
+          <t>ED-Z-14, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2023-06-02 10:00-12:00</t>
+          <t>2023-07-01 12:00-14:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-30 10:00-12:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>EL-B1-20, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2282,12 +2282,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2023-05-31 10:00-12:00</t>
+          <t>2023-07-08 14:00-16:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ED-1-7, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-1-3, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2023-06-01 12:00-14:00</t>
+          <t>2023-07-05 08:00-10:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2023-06-09 16:00-18:00</t>
+          <t>2023-07-02 12:00-14:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>111, ALUAM, Floor 1</t>
+          <t>110, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2350,12 +2350,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2023-05-31 08:00-10:00</t>
+          <t>2023-07-08 12:00-14:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ED-Z-12, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-Z-6, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2023-06-07 10:00-12:00</t>
+          <t>2023-06-28 10:00-12:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EL-B2-3, Sosyal Bilimler Binası, Floor -2</t>
+          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2023-06-06 08:00-10:00</t>
+          <t>2023-07-10 16:00-18:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2023-06-01 08:00-10:00</t>
+          <t>2023-07-06 14:00-16:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ED-2-4, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-2-15, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2023-06-09 08:00-10:00</t>
+          <t>2023-06-29 12:00-14:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ED-1-3, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2023-05-31 08:00-10:00</t>
+          <t>2023-07-02 16:00-18:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ED-B1-11, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2452,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2023-06-05 12:00-14:00</t>
+          <t>2023-07-08 08:00-10:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>EL-B1-21, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2023-06-06 14:00-16:00</t>
+          <t>2023-07-07 16:00-18:00</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2023-06-09 16:00-18:00</t>
+          <t>2023-07-01 14:00-16:00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>EL-B1-21, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ED-3-14, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2023-06-05 16:00-18:00</t>
+          <t>2023-07-10 14:00-16:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>115-117, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2023-06-03 16:00-18:00</t>
+          <t>2023-07-07 10:00-12:00</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ED-Z-20, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-1-1, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2023-06-09 10:00-12:00</t>
+          <t>2023-06-29 16:00-18:00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>224, ALUAM, Floor 2</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2023-06-02 10:00-12:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ED-2-1, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>FMB-ES-103, Fen ve Mühendislik Bilimleri, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2023-06-07 14:00-16:00</t>
+          <t>2023-06-27 12:00-14:00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2023-06-09 16:00-18:00</t>
+          <t>2023-07-03 08:00-10:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-13, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2622,12 +2622,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2023-06-01 16:00-18:00</t>
+          <t>2023-06-28 08:00-10:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>EL-B2-3, Sosyal Bilimler Binası, Floor -2</t>
+          <t>222-223, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2023-06-02 10:00-12:00</t>
+          <t>2023-07-01 14:00-16:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ED-Z-2, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-B1-1, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2023-06-07 14:00-16:00</t>
+          <t>2023-07-03 14:00-16:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>207-211, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-07-06 08:00-10:00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>208, ALUAM, Floor 2</t>
+          <t>ED-B1-1, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2023-06-06 12:00-14:00</t>
+          <t>2023-07-08 16:00-18:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>222-223, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-05 16:00-18:00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2023-06-03 14:00-16:00</t>
+          <t>2023-07-08 08:00-10:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-06-27 14:00-16:00</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>116, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2023-06-01 14:00-16:00</t>
+          <t>2023-07-08 10:00-12:00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>207-211, ALUAM, Floor 2</t>
+          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2023-06-06 10:00-12:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ED-3-8, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2809,12 +2809,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-27 12:00-14:00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>210-213, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2023-05-31 16:00-18:00</t>
+          <t>2023-07-10 10:00-12:00</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>ED-Z-6, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2023-06-03 10:00-12:00</t>
+          <t>2023-07-01 08:00-10:00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-3-8, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -2860,12 +2860,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2023-06-05 08:00-10:00</t>
+          <t>2023-07-01 12:00-14:00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ED-Z-5, Sosyal Bilimler Binası, Floor 0</t>
+          <t>Z1, ALUAM, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2023-06-01 12:00-14:00</t>
+          <t>2023-07-03 16:00-18:00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2894,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2023-06-08 16:00-18:00</t>
+          <t>2023-07-01 10:00-12:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>207-211, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2023-06-03 12:00-14:00</t>
+          <t>2023-07-06 12:00-14:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2023-05-31 08:00-10:00</t>
+          <t>2023-07-06 08:00-10:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>113, ALUAM, Floor 1</t>
+          <t>ED-2-16, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-07-01 08:00-10:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>222-223, ALUAM, Floor 2</t>
+          <t>EL-B2-42, Sosyal Bilimler Binası, Floor -2</t>
         </is>
       </c>
     </row>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-07-06 14:00-16:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
+          <t>208, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2023-06-06 12:00-14:00</t>
+          <t>2023-07-09 08:00-10:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>224, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2023-06-04 16:00-18:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-Z-2, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3013,12 +3013,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-09 10:00-12:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>EL-B1-21, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2023-06-04 08:00-10:00</t>
+          <t>2023-06-29 08:00-10:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>111, ALUAM, Floor 1</t>
+          <t>ED-B1-6, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-30 12:00-14:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2023-06-08 10:00-12:00</t>
+          <t>2023-06-30 08:00-10:00</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-1-7, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2023-06-09 16:00-18:00</t>
+          <t>2023-07-09 08:00-10:00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EA-B1-5, TOKİ Derslikler B Blok, Floor -1</t>
+          <t>224, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3098,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2023-06-03 14:00-16:00</t>
+          <t>2023-07-03 14:00-16:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>219, ALUAM, Floor 2</t>
+          <t>ED-2-8, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-B1-31, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2023-06-03 14:00-16:00</t>
+          <t>2023-07-08 08:00-10:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ED-1-7, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-13-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3149,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2023-06-03 10:00-12:00</t>
+          <t>2023-07-10 10:00-12:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ED-Z-13, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>208, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2023-06-09 08:00-10:00</t>
+          <t>2023-07-10 14:00-16:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>113, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2023-06-09 16:00-18:00</t>
+          <t>2023-07-10 16:00-18:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>224, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-07-03 10:00-12:00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>218, ALUAM, Floor 2</t>
+          <t>ED-Z-12, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2023-06-03 14:00-16:00</t>
+          <t>2023-07-03 14:00-16:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>ED-1-1, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2023-05-31 08:00-10:00</t>
+          <t>2023-06-27 14:00-16:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-3-1, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2023-06-06 08:00-10:00</t>
+          <t>2023-07-03 08:00-10:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ED-1-12, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-27, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3268,12 +3268,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2023-06-09 08:00-10:00</t>
+          <t>2023-07-05 14:00-16:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ED-1-3, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2023-06-09 14:00-16:00</t>
+          <t>2023-07-02 12:00-14:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-12, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>ED-B1-11, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3302,12 +3302,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2023-06-07 10:00-12:00</t>
+          <t>2023-07-06 12:00-14:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-B1-31, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2023-05-31 14:00-16:00</t>
+          <t>2023-07-04 12:00-14:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ED-3-15, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-1-14, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-07-06 14:00-16:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ED-2-14, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2023-06-04 10:00-12:00</t>
+          <t>2023-07-02 12:00-14:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ED-Z-1, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>EL-B1-21, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2023-06-06 10:00-12:00</t>
+          <t>2023-06-30 14:00-16:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ED-2-16, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>218, ALUAM, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2023-06-05 10:00-12:00</t>
+          <t>2023-07-09 14:00-16:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>116, ALUAM, Floor 1</t>
+          <t>ED-Z-1, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2023-06-01 16:00-18:00</t>
+          <t>2023-07-07 16:00-18:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2023-05-31 10:00-12:00</t>
+          <t>2023-07-09 08:00-10:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>110, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2023-06-09 12:00-14:00</t>
+          <t>2023-07-10 14:00-16:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ED-2-15, TOKİ Derslikler B Blok, Floor 2</t>
+          <t>ED-B1-12, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2023-06-08 12:00-14:00</t>
+          <t>2023-07-04 10:00-12:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ED-B1-33, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-Z-7-SB, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2023-06-04 14:00-16:00</t>
+          <t>2023-07-01 12:00-14:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CS-Z-15, TOKİ Derslikler B Blok, Floor 0</t>
+          <t>ED-3-2, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2023-05-31 10:00-12:00</t>
+          <t>2023-07-06 08:00-10:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EL-B1-20, Sosyal Bilimler Binası, Floor -1</t>
+          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2023-06-04 10:00-12:00</t>
+          <t>2023-07-07 08:00-10:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>222-223, ALUAM, Floor 2</t>
+          <t>ED-3-8, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-07-05 16:00-18:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>216-221, ALUAM, Floor 2</t>
+          <t>ED-Z-7, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-07-05 16:00-18:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ED-3-4, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2023-06-02 10:00-12:00</t>
+          <t>2023-07-08 12:00-14:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>110, ALUAM, Floor 1</t>
+          <t>ED-1-7, TOKİ Derslikler B Blok, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3574,12 +3574,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2023-06-03 10:00-12:00</t>
+          <t>2023-07-07 10:00-12:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ED-Z-7-SB, Sosyal Bilimler Binası, Floor 0</t>
+          <t>ED-Z-38, Sosyal Bilimler Binası, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2023-06-02 12:00-14:00</t>
+          <t>2023-06-27 08:00-10:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>UZAK-01, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>EA-B1-12, TOKİ Derslikler B Blok, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3608,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2023-06-05 16:00-18:00</t>
+          <t>2023-07-05 08:00-10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ED-1-14, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-Z-3, TOKİ Derslikler B Blok, Floor 0</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2023-06-07 08:00-10:00</t>
+          <t>2023-06-28 14:00-16:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ED-1-2, TOKİ Derslikler B Blok, Floor 1</t>
+          <t>ED-B1-31, Sosyal Bilimler Binası, Floor -1</t>
         </is>
       </c>
     </row>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2023-06-01 12:00-14:00</t>
+          <t>2023-07-08 12:00-14:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>218, ALUAM, Floor 2</t>
+          <t>ED-2-3, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2023-06-04 12:00-14:00</t>
+          <t>2023-07-06 16:00-18:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TDBA-EA-B1-5, TOKİ Derslikler A Blok, Floor -1</t>
+          <t>113, ALUAM, Floor 1</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2023-06-06 14:00-16:00</t>
+          <t>2023-07-06 12:00-14:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ED-3-3, TOKİ Derslikler B Blok, Floor 3</t>
+          <t>ED-Z-38, Sosyal Bilimler Binası, Floor 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v/>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2023-07-10 14:00-16:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ED-2-16, TOKİ Derslikler B Blok, Floor 2</t>
         </is>
       </c>
     </row>
